--- a/data/trans_orig/TIEMPO_DOMICILIO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>13,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,7</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>14,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,67</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>14,2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,05</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>14,61</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,8</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>13,59</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,52; 16,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,12</t>
+          <t>12,27; 17,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,47; 14,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,26</t>
+          <t>11,52; 14,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,84; 15,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 7,11</t>
+          <t>11,96; 16,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,36; 13,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,11</t>
+          <t>12,73; 15,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,44; 15,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 7,36</t>
+          <t>13,01; 16,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,88; 13,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,14</t>
+          <t>12,53; 14,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,77</t>
+          <t>12,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,64</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,7</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>11,84</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,36</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>8,13</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,46; 14,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,84; 7,76</t>
+          <t>9,73; 14,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,6; 10,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 6,05</t>
+          <t>7,85; 10,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,41; 12,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,54; 8,52</t>
+          <t>9,5; 13,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,04; 9,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,55; 6,14</t>
+          <t>6,15; 8,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,83; 13,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,48; 7,83</t>
+          <t>10,26; 13,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,42; 9,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 5,99</t>
+          <t>7,29; 9,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,61</t>
+          <t>12,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>10,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>8,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,47</t>
+          <t>12,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,95</t>
+          <t>12,37</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,79</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,71</t>
+          <t>8,52</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,0; 15,0</t>
+          <t>11,39; 13,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 8,87</t>
+          <t>9,06; 12,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,93; 10,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 10,01</t>
+          <t>7,79; 9,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 15,0</t>
+          <t>11,43; 13,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 10,32</t>
+          <t>10,3; 12,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,05; 9,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 10,34</t>
+          <t>7,45; 9,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 15,0</t>
+          <t>11,69; 13,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 9,42</t>
+          <t>10,03; 12,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,75; 9,96</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,34; 10,05</t>
+          <t>7,88; 9,24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,84</t>
+          <t>17,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,01</t>
+          <t>18,68</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,12</t>
+          <t>14,63</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,17</t>
+          <t>14,48</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,25</t>
+          <t>17,09</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,2</t>
+          <t>18,86</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,51</t>
+          <t>15,91</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>15,2</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17,42</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,77</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15,26</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>14,84</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>12,54</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>13,59</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>15,27</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>15,01</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,61; 14,05</t>
+          <t>16,83; 18,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,52; 14,49</t>
+          <t>17,19; 20,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 17,44</t>
+          <t>13,67; 15,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,52; 15,75</t>
+          <t>12,82; 16,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,08; 13,43</t>
+          <t>16,35; 18,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 15,66</t>
+          <t>17,71; 20,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,91; 15,9</t>
+          <t>14,94; 17,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,18; 15,52</t>
+          <t>13,76; 16,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,69; 13,43</t>
+          <t>16,77; 18,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 14,59</t>
+          <t>17,72; 19,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,13; 16,23</t>
+          <t>14,54; 15,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 15,43</t>
+          <t>13,83; 16,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,71</t>
+          <t>25,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,18</t>
+          <t>24,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,02</t>
+          <t>20,72</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,77</t>
+          <t>22,8</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>26,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>25,76</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,97</t>
+          <t>22,92</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,14</t>
+          <t>24,92</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>25,98</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>8,13</t>
+          <t>25,19</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>11,0</t>
+          <t>21,82</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,98</t>
+          <t>23,95</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,6; 9,98</t>
+          <t>24,28; 26,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,01; 10,55</t>
+          <t>23,09; 26,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,42; 12,77</t>
+          <t>19,38; 22,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,74; 14,97</t>
+          <t>20,45; 26,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,14; 9,17</t>
+          <t>25,55; 27,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,18; 8,14</t>
+          <t>24,42; 27,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,59; 12,31</t>
+          <t>21,39; 24,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,03; 13,38</t>
+          <t>22,81; 26,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,59; 9,19</t>
+          <t>25,28; 26,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,41; 8,99</t>
+          <t>24,26; 26,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,87; 12,12</t>
+          <t>20,77; 22,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,18; 13,73</t>
+          <t>22,36; 25,76</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,82</t>
+          <t>34,02</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>29,97</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,71</t>
+          <t>27,71</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,57</t>
+          <t>37,65</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>36,38</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>27,78</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,69</t>
+          <t>29,75</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,47</t>
+          <t>36,58</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>35,22</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>28,34</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>28,71</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>12,52</t>
+          <t>37,05</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,9; 10,8</t>
+          <t>32,73; 35,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,76; 9,68</t>
+          <t>27,73; 31,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,67; 13,1</t>
+          <t>26,37; 28,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,69; 13,59</t>
+          <t>34,9; 40,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,23; 9,71</t>
+          <t>35,23; 37,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,54; 9,45</t>
+          <t>25,63; 32,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,94; 12,64</t>
+          <t>28,28; 31,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,64; 13,38</t>
+          <t>33,35; 39,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,72; 9,98</t>
+          <t>34,35; 36,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,86; 9,18</t>
+          <t>26,17; 31,5</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,99; 12,45</t>
+          <t>27,67; 29,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,94; 13,25</t>
+          <t>34,92; 38,95</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,7</t>
+          <t>40,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,48</t>
+          <t>36,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,11</t>
+          <t>34,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,52</t>
+          <t>45,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,74</t>
+          <t>42,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,2</t>
+          <t>38,92</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>18,97</t>
+          <t>36,41</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,58</t>
+          <t>44,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,21</t>
+          <t>41,39</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14,84</t>
+          <t>37,94</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>18,55</t>
+          <t>35,56</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>18,05</t>
+          <t>44,82</t>
         </is>
       </c>
     </row>
@@ -1564,69 +1564,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,75; 15,64</t>
+          <t>38,85; 41,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,11; 16,65</t>
+          <t>33,75; 39,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,87; 19,34</t>
+          <t>32,77; 36,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,45; 19,39</t>
+          <t>42,24; 48,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,81; 16,67</t>
+          <t>40,79; 43,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,93; 16,72</t>
+          <t>36,88; 41,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,15; 19,96</t>
+          <t>34,37; 38,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,8; 18,38</t>
+          <t>40,58; 47,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,49; 15,88</t>
+          <t>40,39; 42,48</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,78; 16,11</t>
+          <t>36,33; 39,65</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,83; 19,33</t>
+          <t>34,25; 36,97</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,42; 18,68</t>
+          <t>42,28; 46,97</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>20,67</t>
+          <t>23,43</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>22,8</t>
+          <t>20,06</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,39</t>
+          <t>17,79</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>25,94</t>
+          <t>18,91</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>22,74</t>
+          <t>24,92</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>24,92</t>
+          <t>22,35</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>26,53</t>
+          <t>18,97</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>27,2</t>
+          <t>20,9</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>21,74</t>
+          <t>24,2</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>23,95</t>
+          <t>21,32</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>25,96</t>
+          <t>18,39</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>26,61</t>
+          <t>19,96</t>
         </is>
       </c>
     </row>
@@ -1704,507 +1704,84 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,27; 22,12</t>
+          <t>22,9; 24,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,17; 25,67</t>
+          <t>19,19; 20,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,96; 26,59</t>
+          <t>17,23; 18,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,79; 27,01</t>
+          <t>17,86; 20,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>21,38; 24,15</t>
+          <t>24,37; 25,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>22,99; 27,28</t>
+          <t>21,44; 23,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,44; 27,55</t>
+          <t>18,39; 19,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,27; 28,14</t>
+          <t>19,77; 22,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,83; 22,8</t>
+          <t>23,81; 24,59</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,34; 25,66</t>
+          <t>20,66; 22,37</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>25,16; 26,86</t>
+          <t>17,97; 18,84</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>25,92; 27,36</t>
+          <t>19,19; 20,73</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>27,75</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>37,65</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>29,6</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>34,38</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>29,44</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>36,58</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>29,85</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>36,26</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>28,5</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>37,05</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>29,75</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>35,33</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>26,58; 28,98</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>34,8; 40,38</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>28,06; 31,22</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>33,3; 35,49</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>27,89; 30,83</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>33,63; 39,26</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>26,86; 32,6</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>35,23; 37,38</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>27,49; 29,39</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>34,99; 39,14</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>27,47; 31,23</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>34,57; 36,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>34,74</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>45,94</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>37,73</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>40,65</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>36,43</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>44,15</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>40,7</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>42,44</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>35,59</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>44,82</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>39,54</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>41,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>33,09; 36,46</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>41,91; 49,13</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>35,82; 39,72</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>39,3; 42,01</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>34,7; 38,22</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>40,64; 47,41</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>38,98; 42,24</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>41,26; 43,58</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>34,41; 36,72</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>42,38; 47,23</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>38,25; 40,68</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>40,76; 42,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>20,21</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>17,33</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>20,48</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>21,58</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>20,61</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>19,28</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>22,39</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>23,14</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>20,41</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>18,35</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>21,5</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>22,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>19,6; 20,83</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>16,4; 18,36</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>19,77; 21,19</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>21,1; 22,05</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>19,95; 21,24</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>18,28; 20,23</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>21,8; 23,11</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>22,66; 23,58</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>20,0; 20,87</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>17,71; 19,09</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>21,02; 21,98</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>22,05; 22,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_orig/TIEMPO_DOMICILIO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número de años residiendo en el domicilio</t>
+          <t>Número de años residiendo en el domicilio (tasa de respuesta: 97,32%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/TIEMPO_DOMICILIO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO-Edad-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,39</t>
+          <t>15,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,7</t>
+          <t>15,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,05</t>
+          <t>15,11</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,52; 16,1</t>
+          <t>14,22; 15,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,27; 17,05</t>
+          <t>12,45; 17,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,52; 14,5</t>
+          <t>11,45; 14,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,84; 15,51</t>
+          <t>14,25; 15,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,19</t>
+          <t>11,93; 16,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,73; 15,55</t>
+          <t>12,62; 15,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,44; 15,63</t>
+          <t>14,54; 15,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,01; 16,04</t>
+          <t>12,83; 16,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,53; 14,64</t>
+          <t>12,53; 14,59</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,67</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,64</t>
+          <t>11,4</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,7</t>
+          <t>12,46</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,46; 14,89</t>
+          <t>12,34; 14,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,73; 14,8</t>
+          <t>10,05; 15,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,85; 10,39</t>
+          <t>8,11; 10,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,41; 12,96</t>
+          <t>10,32; 12,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,5; 13,47</t>
+          <t>9,46; 13,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,27</t>
+          <t>6,12; 8,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,83; 13,5</t>
+          <t>11,59; 13,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,26; 13,57</t>
+          <t>10,27; 13,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 9,03</t>
+          <t>7,35; 8,98</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,4</t>
+          <t>11,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,34</t>
+          <t>11,81</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,37</t>
+          <t>11,74</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 13,46</t>
+          <t>10,83; 12,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 12,31</t>
+          <t>9,17; 12,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 9,8</t>
+          <t>7,73; 9,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,43; 13,35</t>
+          <t>10,93; 12,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,3; 12,56</t>
+          <t>10,3; 12,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 9,52</t>
+          <t>7,55; 9,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,69; 13,14</t>
+          <t>11,1; 12,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 12,04</t>
+          <t>10,08; 11,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 9,24</t>
+          <t>7,87; 9,2</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,75</t>
+          <t>17,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,09</t>
+          <t>16,79</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,42</t>
+          <t>17,05</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,83; 18,72</t>
+          <t>16,41; 18,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,19; 20,56</t>
+          <t>17,07; 20,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,82; 16,37</t>
+          <t>13,0; 16,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 18,1</t>
+          <t>15,9; 17,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,71; 20,21</t>
+          <t>17,74; 20,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,76; 16,62</t>
+          <t>13,93; 16,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,77; 18,11</t>
+          <t>16,49; 17,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,72; 19,93</t>
+          <t>17,65; 19,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,83; 16,0</t>
+          <t>13,76; 16,08</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>25,42</t>
+          <t>24,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,47</t>
+          <t>25,71</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>25,98</t>
+          <t>25,35</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,28; 26,71</t>
+          <t>23,87; 26,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23,09; 26,15</t>
+          <t>23,15; 26,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,45; 26,18</t>
+          <t>20,32; 25,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,55; 27,51</t>
+          <t>24,74; 26,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,42; 27,1</t>
+          <t>24,38; 27,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,81; 26,99</t>
+          <t>22,84; 26,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,28; 26,85</t>
+          <t>24,63; 26,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,26; 26,35</t>
+          <t>24,2; 26,33</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,36; 25,76</t>
+          <t>22,44; 25,78</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>34,02</t>
+          <t>33,58</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>36,38</t>
+          <t>35,83</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>35,22</t>
+          <t>34,79</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,73; 35,22</t>
+          <t>32,36; 34,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,73; 31,82</t>
+          <t>27,77; 31,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,9; 40,68</t>
+          <t>34,58; 40,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,23; 37,64</t>
+          <t>34,59; 37,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,63; 32,63</t>
+          <t>25,72; 32,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,35; 39,36</t>
+          <t>33,24; 39,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>34,35; 36,16</t>
+          <t>33,96; 35,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,17; 31,5</t>
+          <t>25,91; 31,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>34,92; 38,95</t>
+          <t>34,86; 39,11</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>40,27</t>
+          <t>39,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>42,22</t>
+          <t>42,15</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>41,39</t>
+          <t>41,14</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>38,85; 41,76</t>
+          <t>38,08; 40,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,75; 39,16</t>
+          <t>33,77; 38,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>42,24; 48,97</t>
+          <t>42,51; 49,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>40,79; 43,52</t>
+          <t>40,85; 43,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,88; 41,03</t>
+          <t>36,9; 41,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,58; 47,1</t>
+          <t>40,96; 47,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>40,39; 42,48</t>
+          <t>40,09; 42,03</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>36,33; 39,65</t>
+          <t>36,41; 39,57</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>42,28; 46,97</t>
+          <t>42,15; 47,03</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>23,43</t>
+          <t>21,54</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>24,92</t>
+          <t>23,37</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>24,2</t>
+          <t>22,5</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>22,9; 24,05</t>
+          <t>21,04; 22,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,19; 20,97</t>
+          <t>19,2; 20,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,17 +1719,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,86; 20,01</t>
+          <t>17,86; 19,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,37; 25,46</t>
+          <t>22,88; 23,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>21,44; 23,53</t>
+          <t>21,46; 23,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1739,17 +1739,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,77; 22,07</t>
+          <t>19,85; 22,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,81; 24,59</t>
+          <t>22,13; 22,88</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>20,66; 22,37</t>
+          <t>20,64; 22,29</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>19,19; 20,73</t>
+          <t>19,28; 20,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/TIEMPO_DOMICILIO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/TIEMPO_DOMICILIO-Edad-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>13,34</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13,01</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12,92</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>15,1</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>12,92</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,01</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>13,23</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14,2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12,67</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>15,12</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>14,21</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>12,67</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>14,2</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>13,28</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13,59</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>12,8</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>15,11</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>14,61</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>12,8</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>13,59</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>10,8; 15,86</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11,45; 14,48</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11,47; 14,25</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>14,22; 15,83</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>12,45; 17,13</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>11,47; 14,25</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>11,45; 14,48</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>11,01; 15,16</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12,62; 15,56</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11,36; 13,95</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>14,25; 15,95</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>11,93; 16,09</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>11,36; 13,95</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>12,62; 15,56</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>11,57; 14,92</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12,53; 14,59</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11,88; 13,71</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>14,54; 15,66</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>12,83; 16,16</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>11,88; 13,71</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>12,53; 14,59</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>12,25</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>9,18</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8,76</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>13,5</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,32</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,76</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,18</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>10,48</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7,13</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8,02</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>11,4</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>11,36</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>8,02</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>7,13</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,13</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8,36</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>12,46</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>11,84</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>8,36</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>8,13</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>9,97; 14,78</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8,11; 10,54</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7,6; 10,39</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>12,34; 14,79</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>10,05; 15,09</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>7,6; 10,39</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>8,11; 10,54</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>8,64; 12,32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 8,28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7,04; 9,31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>10,32; 12,64</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>9,46; 13,54</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>7,04; 9,31</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>6,12; 8,28</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>9,87; 13,2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 8,98</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7,42; 9,14</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>11,59; 13,42</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>10,27; 13,62</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>7,42; 9,14</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>7,35; 8,98</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>9,98</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8,64</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>9,82</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>11,66</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,48</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>9,82</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,64</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>10,94</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8,84</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>11,81</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>11,4</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>8,84</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>8,4</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>10,43</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>8,52</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,33</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>11,74</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>10,92</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>9,33</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>8,52</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>8,77; 11,66</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7,73; 9,64</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8,93; 10,87</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>10,83; 12,68</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>9,17; 12,25</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>8,93; 10,87</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>7,73; 9,64</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>9,85; 12,07</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7,55; 9,47</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8,05; 9,64</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>10,93; 12,62</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>10,3; 12,54</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>8,05; 9,64</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>7,55; 9,47</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>9,62; 11,32</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7,87; 9,2</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8,75; 9,96</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>11,1; 12,43</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>10,08; 11,89</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>8,75; 9,96</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>7,87; 9,2</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>18,25</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14,48</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14,63</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>17,32</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>18,68</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>14,63</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>14,48</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>18,34</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15,2</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15,91</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>16,79</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>18,86</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>15,91</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>15,2</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>18,3</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14,84</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>15,26</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>17,05</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>18,77</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>15,26</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>14,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>16,63; 20,18</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13,0; 16,49</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 15,73</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>16,41; 18,25</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>17,07; 20,6</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>13,67; 15,73</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>13,0; 16,49</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>17,25; 19,76</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13,93; 16,82</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 17,09</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>15,9; 17,64</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>17,74; 20,3</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>14,94; 17,09</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>13,93; 16,82</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>17,21; 19,34</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13,76; 16,08</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>14,54; 15,99</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>16,49; 17,73</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>17,65; 19,78</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>14,54; 15,99</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>13,76; 16,08</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>23,81</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22,8</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20,72</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>24,95</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>24,63</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>20,72</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>22,8</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>25,06</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24,92</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22,92</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>25,71</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>25,76</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>22,92</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>24,92</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>24,44</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>23,95</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>21,82</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>25,35</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>25,19</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>21,82</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>23,95</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>22,35; 25,64</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>20,32; 25,55</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>19,38; 22,16</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>23,87; 26,13</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>23,15; 26,32</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>19,38; 22,16</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>20,32; 25,55</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>23,6; 26,4</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22,84; 26,98</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21,39; 24,32</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>24,74; 26,64</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>24,38; 27,09</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>21,39; 24,32</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>22,84; 26,98</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>23,39; 25,55</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>22,44; 25,78</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>20,77; 22,78</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>24,63; 26,1</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>24,2; 26,33</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>20,77; 22,78</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>22,44; 25,78</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>29,05</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>37,65</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>27,71</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>33,58</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>29,97</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>27,71</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>37,65</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>31,75</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>36,58</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>29,75</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>35,83</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>27,78</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>29,75</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>36,58</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>30,48</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>37,05</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>28,71</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>34,79</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>28,34</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>28,71</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>37,05</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>26,96; 31,08</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>34,58; 40,49</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>26,37; 28,92</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>32,36; 34,91</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>27,77; 31,82</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>26,37; 28,92</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>34,58; 40,49</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>30,14; 33,57</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>33,24; 39,29</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28,28; 31,26</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>34,59; 37,06</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>25,72; 32,75</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>28,28; 31,26</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>33,24; 39,29</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>29,11; 31,67</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>34,86; 39,11</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>27,67; 29,67</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>33,96; 35,72</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>25,91; 31,63</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>27,67; 29,67</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>34,86; 39,11</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>36,24</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>45,94</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>34,46</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>39,56</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>36,49</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>34,46</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>45,94</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>38,74</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>44,15</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>36,41</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>42,15</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>38,92</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>36,41</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>44,15</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>37,73</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>44,82</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>35,56</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>41,14</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>37,94</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>35,56</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>44,82</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>33,34; 38,6</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>42,51; 49,41</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>32,77; 36,35</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>38,08; 40,87</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>33,77; 38,95</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>32,77; 36,35</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>42,51; 49,41</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>36,64; 41,15</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>40,96; 47,02</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>34,37; 38,24</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>40,85; 43,42</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>36,9; 41,28</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>34,37; 38,24</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>40,96; 47,02</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>36,13; 39,44</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>42,15; 47,03</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>34,25; 36,97</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>40,09; 42,03</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>36,41; 39,57</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>34,25; 36,97</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>42,15; 47,03</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>19,32</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>18,91</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17,79</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>21,54</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>20,06</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>17,79</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>18,91</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>21,1</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20,9</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>18,97</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>23,37</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>22,35</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>18,97</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>20,9</t>
-        </is>
-      </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
+          <t>20,23</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>19,96</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>18,39</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
           <t>22,5</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>21,32</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>18,39</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>19,96</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>18,43; 20,18</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>17,86; 19,98</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>17,23; 18,34</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>21,04; 22,09</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>19,2; 20,93</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>17,23; 18,34</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>17,86; 19,98</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>20,28; 21,87</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>19,85; 22,14</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>18,39; 19,66</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>22,88; 23,97</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>21,46; 23,54</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>18,39; 19,66</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>19,85; 22,14</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
+          <t>19,65; 20,81</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>19,28; 20,64</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>17,97; 18,84</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
           <t>22,13; 22,88</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>20,64; 22,29</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>17,97; 18,84</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>19,28; 20,64</t>
         </is>
       </c>
     </row>
